--- a/src/main/resources/test.xlsx
+++ b/src/main/resources/test.xlsx
@@ -8,12 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\Repo\Resources\JAVA\in28minsSpringBootDemo\src\main\resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C7B0AEA3-E151-44DC-B408-646F1EC48A27}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0413EF94-00C5-4827-90D1-B614FA054E46}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -25,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="57">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="110" uniqueCount="57">
   <si>
     <t>JS UPVC DOORS
 AND WINDOWS</t>
@@ -449,7 +450,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="75">
+  <cellXfs count="68">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -518,6 +519,27 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -537,11 +559,8 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -555,67 +574,37 @@
     <xf numFmtId="165" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
@@ -627,22 +616,13 @@
     <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
   </cellXfs>
@@ -709,6 +689,64 @@
         <a:xfrm>
           <a:off x="0" y="0"/>
           <a:ext cx="647700" cy="628650"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>38100</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>47625</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="Graphic 1" descr="House">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B5B1835B-B1E6-4644-B340-DD4312E972B5}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+            <a:ext uri="{96DAC541-7B7A-43D3-8B79-37D633B846F1}">
+              <asvg:svgBlip xmlns:asvg="http://schemas.microsoft.com/office/drawing/2016/SVG/main" r:embed="rId2"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="0"/>
+          <a:ext cx="647700" cy="619125"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -983,10 +1021,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:S49"/>
+  <dimension ref="A1:S42"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E13" sqref="E13"/>
+      <selection activeCell="H19" sqref="H19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -999,25 +1037,25 @@
   <sheetData>
     <row r="1" spans="1:11" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1"/>
-      <c r="B1" s="72" t="s">
+      <c r="B1" s="66" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="72"/>
-      <c r="D1" s="72"/>
+      <c r="C1" s="66"/>
+      <c r="D1" s="66"/>
       <c r="E1" s="2"/>
     </row>
     <row r="2" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B2" s="72"/>
-      <c r="C2" s="72"/>
-      <c r="D2" s="72"/>
+      <c r="B2" s="66"/>
+      <c r="C2" s="66"/>
+      <c r="D2" s="66"/>
       <c r="E2" s="2"/>
       <c r="H2" s="1"/>
       <c r="I2" s="1"/>
     </row>
     <row r="3" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B3" s="72"/>
-      <c r="C3" s="72"/>
-      <c r="D3" s="72"/>
+      <c r="B3" s="66"/>
+      <c r="C3" s="66"/>
+      <c r="D3" s="66"/>
       <c r="E3" s="2"/>
       <c r="F3" s="1"/>
       <c r="G3" s="1"/>
@@ -1025,23 +1063,23 @@
       <c r="I3" s="1"/>
     </row>
     <row r="4" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B4" s="72"/>
-      <c r="C4" s="72"/>
-      <c r="D4" s="72"/>
+      <c r="B4" s="66"/>
+      <c r="C4" s="66"/>
+      <c r="D4" s="66"/>
       <c r="E4" s="2"/>
       <c r="F4" s="1"/>
       <c r="G4" s="1"/>
-      <c r="H4" s="73"/>
-      <c r="I4" s="73"/>
+      <c r="H4" s="67"/>
+      <c r="I4" s="67"/>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A5" s="74" t="s">
+      <c r="A5" s="65" t="s">
         <v>1</v>
       </c>
-      <c r="B5" s="74"/>
-      <c r="C5" s="74"/>
-      <c r="D5" s="74"/>
-      <c r="E5" s="74"/>
+      <c r="B5" s="65"/>
+      <c r="C5" s="65"/>
+      <c r="D5" s="65"/>
+      <c r="E5" s="65"/>
       <c r="F5" s="1"/>
       <c r="G5" s="1"/>
       <c r="H5" s="1"/>
@@ -1049,12 +1087,12 @@
       <c r="J5" s="1"/>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A6" s="74" t="s">
+      <c r="A6" s="65" t="s">
         <v>2</v>
       </c>
-      <c r="B6" s="74"/>
-      <c r="C6" s="74"/>
-      <c r="D6" s="74"/>
+      <c r="B6" s="65"/>
+      <c r="C6" s="65"/>
+      <c r="D6" s="65"/>
       <c r="E6" s="3"/>
       <c r="F6" s="3"/>
       <c r="G6" s="3"/>
@@ -1063,543 +1101,412 @@
       <c r="J6" s="1"/>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A7" s="74" t="s">
+      <c r="A7" s="65" t="s">
         <v>3</v>
       </c>
-      <c r="B7" s="74"/>
-      <c r="C7" s="74"/>
-      <c r="D7" s="74"/>
+      <c r="B7" s="65"/>
+      <c r="C7" s="65"/>
+      <c r="D7" s="65"/>
       <c r="E7" s="1"/>
       <c r="F7" s="1"/>
       <c r="G7" s="1"/>
       <c r="H7" s="1"/>
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A8" s="74" t="s">
+      <c r="A8" s="65" t="s">
         <v>4</v>
       </c>
-      <c r="B8" s="74"/>
-      <c r="C8" s="74"/>
-      <c r="D8" s="74"/>
+      <c r="B8" s="65"/>
+      <c r="C8" s="65"/>
+      <c r="D8" s="65"/>
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A9" s="36" t="s">
+      <c r="A9" s="43" t="s">
         <v>5</v>
       </c>
-      <c r="B9" s="36"/>
-      <c r="C9" s="36"/>
-      <c r="D9" s="36"/>
-      <c r="E9" s="36"/>
-      <c r="F9" s="36"/>
-      <c r="G9" s="36"/>
-      <c r="H9" s="36"/>
-      <c r="I9" s="36"/>
-      <c r="J9" s="36"/>
+      <c r="B9" s="43"/>
+      <c r="C9" s="43"/>
+      <c r="D9" s="43"/>
+      <c r="E9" s="43"/>
+      <c r="F9" s="43"/>
+      <c r="G9" s="43"/>
+      <c r="H9" s="43"/>
+      <c r="I9" s="43"/>
+      <c r="J9" s="43"/>
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A11" s="66" t="s">
+      <c r="A11" s="62" t="s">
         <v>6</v>
       </c>
-      <c r="B11" s="66"/>
-      <c r="C11" s="66"/>
-      <c r="D11" s="66" t="s">
+      <c r="B11" s="62"/>
+      <c r="C11" s="62"/>
+      <c r="D11" s="62" t="s">
         <v>7</v>
       </c>
-      <c r="E11" s="66"/>
+      <c r="E11" s="62"/>
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A12" s="41" t="s">
+      <c r="A12" s="47" t="s">
         <v>8</v>
       </c>
-      <c r="B12" s="67"/>
-      <c r="C12" s="42"/>
-      <c r="D12" s="68">
+      <c r="B12" s="63"/>
+      <c r="C12" s="48"/>
+      <c r="D12" s="64">
         <v>45114</v>
       </c>
-      <c r="E12" s="66"/>
+      <c r="E12" s="62"/>
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A14" s="50" t="s">
+      <c r="A14" s="57" t="s">
         <v>9</v>
       </c>
-      <c r="B14" s="69" t="s">
+      <c r="B14" s="59" t="s">
         <v>10</v>
       </c>
-      <c r="C14" s="50" t="s">
+      <c r="C14" s="57" t="s">
         <v>11</v>
       </c>
-      <c r="D14" s="69"/>
-      <c r="E14" s="71" t="s">
+      <c r="D14" s="59"/>
+      <c r="E14" s="61" t="s">
         <v>12</v>
       </c>
-      <c r="F14" s="71"/>
-      <c r="G14" s="46" t="s">
+      <c r="F14" s="61"/>
+      <c r="G14" s="55" t="s">
         <v>13</v>
       </c>
-      <c r="H14" s="54" t="s">
+      <c r="H14" s="51" t="s">
         <v>14</v>
       </c>
-      <c r="I14" s="55"/>
-      <c r="J14" s="46" t="s">
+      <c r="I14" s="52"/>
+      <c r="J14" s="55" t="s">
         <v>15</v>
       </c>
-      <c r="K14" s="46" t="s">
+      <c r="K14" s="55" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="15" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A15" s="52"/>
-      <c r="B15" s="70"/>
-      <c r="C15" s="52"/>
-      <c r="D15" s="70"/>
+      <c r="A15" s="58"/>
+      <c r="B15" s="60"/>
+      <c r="C15" s="58"/>
+      <c r="D15" s="60"/>
       <c r="E15" s="5" t="s">
         <v>17</v>
       </c>
       <c r="F15" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="G15" s="48"/>
-      <c r="H15" s="58"/>
-      <c r="I15" s="59"/>
-      <c r="J15" s="48"/>
-      <c r="K15" s="48"/>
-    </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A16" s="50">
-        <v>1</v>
-      </c>
-      <c r="B16" s="53" t="s">
-        <v>19</v>
-      </c>
-      <c r="C16" s="54" t="s">
-        <v>20</v>
-      </c>
-      <c r="D16" s="55"/>
-      <c r="E16" s="46">
-        <v>760</v>
-      </c>
-      <c r="F16" s="46">
-        <v>2134</v>
-      </c>
-      <c r="G16" s="46">
-        <v>8</v>
-      </c>
-      <c r="H16" s="60">
-        <f>+E16*F16*8/92903</f>
-        <v>139.65878389287752</v>
-      </c>
-      <c r="I16" s="61"/>
-      <c r="J16" s="46">
-        <v>540</v>
-      </c>
-      <c r="K16" s="39">
-        <f>+J16*H16</f>
-        <v>75415.74330215386</v>
-      </c>
-    </row>
-    <row r="17" spans="1:15" ht="6.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="51"/>
-      <c r="B17" s="47"/>
-      <c r="C17" s="56"/>
-      <c r="D17" s="57"/>
+      <c r="G15" s="56"/>
+      <c r="H15" s="53"/>
+      <c r="I15" s="54"/>
+      <c r="J15" s="56"/>
+      <c r="K15" s="56"/>
+    </row>
+    <row r="16" spans="1:11" ht="48" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="33"/>
+      <c r="B16" s="34"/>
+      <c r="C16" s="35"/>
+      <c r="D16" s="36"/>
+      <c r="E16" s="32"/>
+      <c r="F16" s="32"/>
+      <c r="G16" s="32"/>
+      <c r="H16" s="37"/>
+      <c r="I16" s="38"/>
+      <c r="J16" s="32"/>
+      <c r="K16" s="7"/>
+    </row>
+    <row r="17" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A17" s="47"/>
+      <c r="B17" s="48"/>
+      <c r="C17" s="47"/>
+      <c r="D17" s="48"/>
       <c r="E17" s="47"/>
-      <c r="F17" s="47"/>
-      <c r="G17" s="47"/>
-      <c r="H17" s="62"/>
-      <c r="I17" s="63"/>
-      <c r="J17" s="47"/>
-      <c r="K17" s="40"/>
-    </row>
-    <row r="18" spans="1:15" ht="9.9499999999999993" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="51"/>
-      <c r="B18" s="47"/>
-      <c r="C18" s="56"/>
-      <c r="D18" s="57"/>
-      <c r="E18" s="47"/>
-      <c r="F18" s="47"/>
-      <c r="G18" s="47"/>
-      <c r="H18" s="62"/>
-      <c r="I18" s="63"/>
-      <c r="J18" s="47"/>
-      <c r="K18" s="40"/>
-    </row>
-    <row r="19" spans="1:15" ht="9.9499999999999993" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="52"/>
-      <c r="B19" s="48"/>
-      <c r="C19" s="58"/>
-      <c r="D19" s="59"/>
-      <c r="E19" s="48"/>
-      <c r="F19" s="48"/>
-      <c r="G19" s="48"/>
-      <c r="H19" s="64"/>
-      <c r="I19" s="65"/>
-      <c r="J19" s="48"/>
-      <c r="K19" s="49"/>
-    </row>
-    <row r="20" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="50">
-        <v>2</v>
-      </c>
-      <c r="B20" s="53" t="s">
-        <v>21</v>
-      </c>
-      <c r="C20" s="54" t="s">
-        <v>22</v>
-      </c>
-      <c r="D20" s="55"/>
-      <c r="E20" s="46">
-        <v>915</v>
-      </c>
-      <c r="F20" s="46">
-        <v>1220</v>
-      </c>
-      <c r="G20" s="46">
-        <v>4</v>
-      </c>
-      <c r="H20" s="60">
-        <f>+E20*F20*4/92903</f>
-        <v>48.063033486539723</v>
-      </c>
-      <c r="I20" s="61"/>
-      <c r="J20" s="46">
-        <v>480</v>
-      </c>
-      <c r="K20" s="39">
-        <f>+H20*J20</f>
-        <v>23070.256073539065</v>
-      </c>
-    </row>
-    <row r="21" spans="1:15" ht="6.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="51"/>
-      <c r="B21" s="47"/>
-      <c r="C21" s="56"/>
-      <c r="D21" s="57"/>
-      <c r="E21" s="47"/>
-      <c r="F21" s="47"/>
-      <c r="G21" s="47"/>
-      <c r="H21" s="62"/>
-      <c r="I21" s="63"/>
-      <c r="J21" s="47"/>
-      <c r="K21" s="40"/>
-    </row>
-    <row r="22" spans="1:15" ht="9.9499999999999993" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="51"/>
-      <c r="B22" s="47"/>
-      <c r="C22" s="56"/>
-      <c r="D22" s="57"/>
-      <c r="E22" s="47"/>
-      <c r="F22" s="47"/>
-      <c r="G22" s="47"/>
-      <c r="H22" s="62"/>
-      <c r="I22" s="63"/>
-      <c r="J22" s="47"/>
-      <c r="K22" s="40"/>
-    </row>
-    <row r="23" spans="1:15" ht="9.9499999999999993" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="52"/>
-      <c r="B23" s="48"/>
-      <c r="C23" s="58"/>
-      <c r="D23" s="59"/>
-      <c r="E23" s="48"/>
-      <c r="F23" s="48"/>
-      <c r="G23" s="48"/>
-      <c r="H23" s="64"/>
-      <c r="I23" s="65"/>
-      <c r="J23" s="48"/>
-      <c r="K23" s="40"/>
-    </row>
-    <row r="24" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A24" s="41"/>
-      <c r="B24" s="42"/>
-      <c r="C24" s="41"/>
-      <c r="D24" s="42"/>
-      <c r="E24" s="41"/>
-      <c r="F24" s="42"/>
-      <c r="G24" s="4"/>
-      <c r="H24" s="43">
-        <f>SUM(H16:I23)</f>
-        <v>187.72181737941725</v>
-      </c>
-      <c r="I24" s="44"/>
-      <c r="J24" s="8"/>
-      <c r="K24" s="9">
-        <f>SUM(K16:K23)</f>
-        <v>98485.999375692918</v>
-      </c>
-      <c r="L24" s="10"/>
-    </row>
-    <row r="25" spans="1:15" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="11"/>
-      <c r="B25" s="11"/>
-      <c r="G25" s="12"/>
-      <c r="H25" s="11"/>
-      <c r="J25" s="13" t="s">
+      <c r="F17" s="48"/>
+      <c r="G17" s="4"/>
+      <c r="H17" s="49">
+        <f>SUM(H16:I16)</f>
+        <v>0</v>
+      </c>
+      <c r="I17" s="50"/>
+      <c r="J17" s="8"/>
+      <c r="K17" s="9">
+        <f>SUM(K16:K16)</f>
+        <v>0</v>
+      </c>
+      <c r="L17" s="10"/>
+    </row>
+    <row r="18" spans="1:19" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="11"/>
+      <c r="B18" s="11"/>
+      <c r="G18" s="12"/>
+      <c r="H18" s="11"/>
+      <c r="J18" s="13" t="s">
         <v>23</v>
       </c>
-      <c r="K25" s="14">
+      <c r="K18" s="14">
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="J26" s="15" t="s">
+    <row r="19" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="J19" s="15" t="s">
         <v>24</v>
       </c>
-      <c r="K26" s="16">
-        <f>+K24*18%</f>
-        <v>17727.479887624726</v>
-      </c>
-    </row>
-    <row r="27" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="D27" s="8" t="s">
+      <c r="K19" s="16">
+        <f>+K17*18%</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="D20" s="8" t="s">
         <v>25</v>
       </c>
-      <c r="E27" s="17">
-        <f>+K27/H24</f>
-        <v>619.0728434534102</v>
-      </c>
-      <c r="F27" s="18" t="s">
+      <c r="E20" s="17" t="e">
+        <f>+K20/H17</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="F20" s="18" t="s">
         <v>26</v>
       </c>
-      <c r="J27" s="15" t="s">
+      <c r="J20" s="15" t="s">
         <v>27</v>
       </c>
-      <c r="K27" s="16">
-        <f>+K26+K24</f>
-        <v>116213.47926331764</v>
-      </c>
-    </row>
-    <row r="28" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="J28" s="19" t="s">
+      <c r="K20" s="16">
+        <f>+K19+K17</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="J21" s="19" t="s">
         <v>28</v>
       </c>
-      <c r="K28" s="7">
+      <c r="K21" s="7">
         <v>6000</v>
       </c>
-      <c r="O28" s="10"/>
-    </row>
-    <row r="29" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A29" s="20" t="s">
+      <c r="O21" s="10"/>
+    </row>
+    <row r="22" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A22" s="20" t="s">
         <v>29</v>
       </c>
-      <c r="B29" s="21"/>
-      <c r="C29" s="21" t="s">
+      <c r="B22" s="21"/>
+      <c r="C22" s="21" t="s">
         <v>30</v>
       </c>
-      <c r="D29" s="22" t="s">
+      <c r="D22" s="22" t="s">
         <v>31</v>
       </c>
-      <c r="E29" s="23"/>
-      <c r="J29" s="15" t="s">
+      <c r="E22" s="23"/>
+      <c r="J22" s="15" t="s">
         <v>32</v>
       </c>
-      <c r="K29" s="16">
-        <f>+K27+K28</f>
-        <v>122213.47926331764</v>
-      </c>
-    </row>
-    <row r="30" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A30" s="24" t="s">
+      <c r="K22" s="16">
+        <f>+K20+K21</f>
+        <v>6000</v>
+      </c>
+    </row>
+    <row r="23" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A23" s="24" t="s">
         <v>33</v>
       </c>
-      <c r="E30" s="25" t="s">
+      <c r="E23" s="25" t="s">
         <v>34</v>
       </c>
-      <c r="J30" s="26"/>
-    </row>
-    <row r="31" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A31" s="24" t="s">
+      <c r="J23" s="26"/>
+    </row>
+    <row r="24" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A24" s="24" t="s">
         <v>35</v>
       </c>
-      <c r="E31" s="25" t="s">
+      <c r="E24" s="25" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="32" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A32" s="45" t="s">
+    <row r="25" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A25" s="46" t="s">
         <v>37</v>
       </c>
-      <c r="B32" s="37"/>
-      <c r="E32" s="25"/>
-    </row>
-    <row r="33" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A33" s="28" t="s">
+      <c r="B25" s="44"/>
+      <c r="E25" s="25"/>
+    </row>
+    <row r="26" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A26" s="28" t="s">
         <v>38</v>
       </c>
-      <c r="B33" s="1"/>
-      <c r="C33" s="1" t="s">
+      <c r="B26" s="1"/>
+      <c r="C26" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="E33" s="25"/>
-    </row>
-    <row r="34" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A34" s="34" t="s">
+      <c r="E26" s="25"/>
+    </row>
+    <row r="27" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A27" s="41" t="s">
         <v>40</v>
       </c>
-      <c r="B34" s="35"/>
-      <c r="C34" s="35"/>
-      <c r="D34" s="29" t="s">
+      <c r="B27" s="42"/>
+      <c r="C27" s="42"/>
+      <c r="D27" s="29" t="s">
         <v>41</v>
       </c>
-      <c r="E34" s="30"/>
-    </row>
-    <row r="35" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A35" s="11"/>
-      <c r="B35" s="11"/>
-      <c r="C35" s="11"/>
-      <c r="D35" s="3"/>
-    </row>
-    <row r="36" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A36" s="36" t="s">
+      <c r="E27" s="30"/>
+    </row>
+    <row r="28" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A28" s="11"/>
+      <c r="B28" s="11"/>
+      <c r="C28" s="11"/>
+      <c r="D28" s="3"/>
+    </row>
+    <row r="29" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A29" s="43" t="s">
         <v>42</v>
       </c>
-      <c r="B36" s="36"/>
-      <c r="C36" s="36"/>
-    </row>
-    <row r="37" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A37" s="27" t="s">
+      <c r="B29" s="43"/>
+      <c r="C29" s="43"/>
+    </row>
+    <row r="30" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A30" s="27" t="s">
         <v>43</v>
       </c>
-      <c r="B37" s="27"/>
-      <c r="C37" s="27"/>
-      <c r="D37" s="31"/>
-      <c r="E37" s="31"/>
+      <c r="B30" s="27"/>
+      <c r="C30" s="27"/>
+      <c r="D30" s="31"/>
+      <c r="E30" s="31"/>
+      <c r="F30" s="31"/>
+      <c r="G30" s="31"/>
+    </row>
+    <row r="31" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A31" s="27" t="s">
+        <v>44</v>
+      </c>
+      <c r="B31" s="27"/>
+      <c r="C31" s="27"/>
+      <c r="D31" s="31"/>
+      <c r="E31" s="31"/>
+      <c r="F31" s="31"/>
+      <c r="G31" s="31"/>
+    </row>
+    <row r="32" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A32" s="27" t="s">
+        <v>45</v>
+      </c>
+      <c r="B32" s="27"/>
+      <c r="C32" s="27"/>
+      <c r="D32" s="31"/>
+      <c r="E32" s="31"/>
+      <c r="F32" s="31"/>
+      <c r="G32" s="31"/>
+      <c r="P32" s="1"/>
+      <c r="Q32" s="1"/>
+      <c r="R32" s="1"/>
+      <c r="S32" s="1"/>
+    </row>
+    <row r="33" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A33" s="27" t="s">
+        <v>46</v>
+      </c>
+      <c r="B33" s="27"/>
+      <c r="C33" s="27"/>
+      <c r="D33" s="31"/>
+      <c r="E33" s="31"/>
+      <c r="F33" s="31"/>
+      <c r="G33" s="31"/>
+    </row>
+    <row r="34" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A34" s="27" t="s">
+        <v>47</v>
+      </c>
+      <c r="B34" s="27"/>
+      <c r="C34" s="27"/>
+      <c r="D34" s="31"/>
+      <c r="E34" s="31"/>
+      <c r="F34" s="31"/>
+      <c r="G34" s="31"/>
+    </row>
+    <row r="35" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A35" s="44" t="s">
+        <v>48</v>
+      </c>
+      <c r="B35" s="44"/>
+      <c r="C35" s="44"/>
+      <c r="D35" s="44"/>
+      <c r="E35" s="44"/>
+      <c r="F35" s="44"/>
+      <c r="G35" s="44"/>
+    </row>
+    <row r="36" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A36" s="44" t="s">
+        <v>49</v>
+      </c>
+      <c r="B36" s="44"/>
+      <c r="C36" s="44"/>
+      <c r="D36" s="44"/>
+      <c r="E36" s="44"/>
+      <c r="F36" s="44"/>
+      <c r="G36" s="44"/>
+      <c r="H36" s="44"/>
+      <c r="I36" s="44"/>
+      <c r="J36" s="44"/>
+    </row>
+    <row r="37" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A37" s="44" t="s">
+        <v>50</v>
+      </c>
+      <c r="B37" s="44"/>
+      <c r="C37" s="44"/>
+      <c r="D37" s="44"/>
+      <c r="E37" s="44"/>
       <c r="F37" s="31"/>
       <c r="G37" s="31"/>
     </row>
-    <row r="38" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A38" s="27" t="s">
-        <v>44</v>
-      </c>
-      <c r="B38" s="27"/>
-      <c r="C38" s="27"/>
-      <c r="D38" s="31"/>
-      <c r="E38" s="31"/>
-      <c r="F38" s="31"/>
-      <c r="G38" s="31"/>
-    </row>
-    <row r="39" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A39" s="27" t="s">
-        <v>45</v>
-      </c>
-      <c r="B39" s="27"/>
-      <c r="C39" s="27"/>
-      <c r="D39" s="31"/>
-      <c r="E39" s="31"/>
-      <c r="F39" s="31"/>
-      <c r="G39" s="31"/>
-      <c r="P39" s="1"/>
-      <c r="Q39" s="1"/>
-      <c r="R39" s="1"/>
-      <c r="S39" s="1"/>
-    </row>
-    <row r="40" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A40" s="27" t="s">
-        <v>46</v>
-      </c>
-      <c r="B40" s="27"/>
-      <c r="C40" s="27"/>
-      <c r="D40" s="31"/>
-      <c r="E40" s="31"/>
-      <c r="F40" s="31"/>
-      <c r="G40" s="31"/>
-    </row>
-    <row r="41" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A41" s="27" t="s">
-        <v>47</v>
-      </c>
-      <c r="B41" s="27"/>
-      <c r="C41" s="27"/>
-      <c r="D41" s="31"/>
-      <c r="E41" s="31"/>
-      <c r="F41" s="31"/>
-      <c r="G41" s="31"/>
-    </row>
-    <row r="42" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A42" s="37" t="s">
-        <v>48</v>
-      </c>
-      <c r="B42" s="37"/>
-      <c r="C42" s="37"/>
-      <c r="D42" s="37"/>
-      <c r="E42" s="37"/>
-      <c r="F42" s="37"/>
-      <c r="G42" s="37"/>
-    </row>
-    <row r="43" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A43" s="37" t="s">
-        <v>49</v>
-      </c>
-      <c r="B43" s="37"/>
-      <c r="C43" s="37"/>
-      <c r="D43" s="37"/>
-      <c r="E43" s="37"/>
-      <c r="F43" s="37"/>
-      <c r="G43" s="37"/>
-      <c r="H43" s="37"/>
-      <c r="I43" s="37"/>
-      <c r="J43" s="37"/>
-    </row>
-    <row r="44" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A44" s="37" t="s">
-        <v>50</v>
-      </c>
-      <c r="B44" s="37"/>
-      <c r="C44" s="37"/>
-      <c r="D44" s="37"/>
-      <c r="E44" s="37"/>
-      <c r="F44" s="31"/>
-      <c r="G44" s="31"/>
-    </row>
-    <row r="45" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A45" s="1" t="s">
+    <row r="38" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A38" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="B45" s="1"/>
-      <c r="C45" s="1"/>
-    </row>
-    <row r="46" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A46" s="1"/>
-    </row>
-    <row r="47" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A47" s="1"/>
-      <c r="B47" s="38" t="s">
+      <c r="B38" s="1"/>
+      <c r="C38" s="1"/>
+    </row>
+    <row r="39" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A39" s="1"/>
+    </row>
+    <row r="40" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A40" s="1"/>
+      <c r="B40" s="45" t="s">
         <v>52</v>
       </c>
-      <c r="C47" s="38"/>
-      <c r="D47" s="38"/>
-      <c r="E47" s="38"/>
-      <c r="F47" s="38"/>
-      <c r="G47" s="38"/>
-      <c r="H47" s="38"/>
-    </row>
-    <row r="48" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="B48" s="32" t="s">
+      <c r="C40" s="45"/>
+      <c r="D40" s="45"/>
+      <c r="E40" s="45"/>
+      <c r="F40" s="45"/>
+      <c r="G40" s="45"/>
+      <c r="H40" s="45"/>
+    </row>
+    <row r="41" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B41" s="39" t="s">
         <v>53</v>
       </c>
-      <c r="C48" s="32"/>
-      <c r="D48" s="32"/>
-      <c r="E48" s="32"/>
-      <c r="F48" s="33" t="s">
+      <c r="C41" s="39"/>
+      <c r="D41" s="39"/>
+      <c r="E41" s="39"/>
+      <c r="F41" s="40" t="s">
         <v>54</v>
       </c>
-      <c r="G48" s="33"/>
-      <c r="H48" s="33"/>
-    </row>
-    <row r="49" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B49" s="33" t="s">
+      <c r="G41" s="40"/>
+      <c r="H41" s="40"/>
+    </row>
+    <row r="42" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B42" s="40" t="s">
         <v>55</v>
       </c>
-      <c r="C49" s="33"/>
-      <c r="D49" s="33"/>
-      <c r="E49" s="33"/>
-      <c r="F49" s="33" t="s">
+      <c r="C42" s="40"/>
+      <c r="D42" s="40"/>
+      <c r="E42" s="40"/>
+      <c r="F42" s="40" t="s">
         <v>56</v>
       </c>
-      <c r="G49" s="33"/>
-      <c r="H49" s="33"/>
+      <c r="G42" s="40"/>
+      <c r="H42" s="40"/>
     </row>
   </sheetData>
-  <mergeCells count="52">
+  <mergeCells count="36">
     <mergeCell ref="A8:D8"/>
     <mergeCell ref="B1:D4"/>
     <mergeCell ref="H4:I4"/>
@@ -1611,47 +1518,617 @@
     <mergeCell ref="D11:E11"/>
     <mergeCell ref="A12:C12"/>
     <mergeCell ref="D12:E12"/>
+    <mergeCell ref="H17:I17"/>
     <mergeCell ref="H14:I15"/>
     <mergeCell ref="J14:J15"/>
     <mergeCell ref="K14:K15"/>
-    <mergeCell ref="A16:A19"/>
-    <mergeCell ref="B16:B19"/>
-    <mergeCell ref="C16:D19"/>
-    <mergeCell ref="E16:E19"/>
-    <mergeCell ref="F16:F19"/>
-    <mergeCell ref="G16:G19"/>
-    <mergeCell ref="H16:I19"/>
     <mergeCell ref="A14:A15"/>
     <mergeCell ref="B14:B15"/>
     <mergeCell ref="C14:D15"/>
     <mergeCell ref="E14:F14"/>
     <mergeCell ref="G14:G15"/>
-    <mergeCell ref="A32:B32"/>
-    <mergeCell ref="J16:J19"/>
-    <mergeCell ref="K16:K19"/>
-    <mergeCell ref="A20:A23"/>
-    <mergeCell ref="B20:B23"/>
-    <mergeCell ref="C20:D23"/>
-    <mergeCell ref="E20:E23"/>
-    <mergeCell ref="F20:F23"/>
-    <mergeCell ref="G20:G23"/>
-    <mergeCell ref="H20:I23"/>
-    <mergeCell ref="J20:J23"/>
-    <mergeCell ref="K20:K23"/>
-    <mergeCell ref="A24:B24"/>
-    <mergeCell ref="C24:D24"/>
-    <mergeCell ref="E24:F24"/>
-    <mergeCell ref="H24:I24"/>
-    <mergeCell ref="B48:E48"/>
-    <mergeCell ref="F48:H48"/>
-    <mergeCell ref="B49:E49"/>
-    <mergeCell ref="F49:H49"/>
-    <mergeCell ref="A34:C34"/>
-    <mergeCell ref="A36:C36"/>
-    <mergeCell ref="A42:G42"/>
-    <mergeCell ref="A43:J43"/>
-    <mergeCell ref="A44:E44"/>
-    <mergeCell ref="B47:H47"/>
+    <mergeCell ref="C16:D16"/>
+    <mergeCell ref="H16:I16"/>
+    <mergeCell ref="B41:E41"/>
+    <mergeCell ref="F41:H41"/>
+    <mergeCell ref="B42:E42"/>
+    <mergeCell ref="F42:H42"/>
+    <mergeCell ref="A27:C27"/>
+    <mergeCell ref="A29:C29"/>
+    <mergeCell ref="A35:G35"/>
+    <mergeCell ref="A36:J36"/>
+    <mergeCell ref="A37:E37"/>
+    <mergeCell ref="B40:H40"/>
+    <mergeCell ref="A25:B25"/>
+    <mergeCell ref="A17:B17"/>
+    <mergeCell ref="C17:D17"/>
+    <mergeCell ref="E17:F17"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0214A928-FAAD-42DA-8C1D-570B59D2A9F2}">
+  <dimension ref="A1:S43"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:XFD1048576"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="4" max="4" width="10.140625" customWidth="1"/>
+    <col min="9" max="9" width="9.5703125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="10.28515625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="9.5703125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:11" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="1"/>
+      <c r="B1" s="66" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="66"/>
+      <c r="D1" s="66"/>
+      <c r="E1" s="2"/>
+    </row>
+    <row r="2" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B2" s="66"/>
+      <c r="C2" s="66"/>
+      <c r="D2" s="66"/>
+      <c r="E2" s="2"/>
+      <c r="H2" s="1"/>
+      <c r="I2" s="1"/>
+    </row>
+    <row r="3" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B3" s="66"/>
+      <c r="C3" s="66"/>
+      <c r="D3" s="66"/>
+      <c r="E3" s="2"/>
+      <c r="F3" s="1"/>
+      <c r="G3" s="1"/>
+      <c r="H3" s="1"/>
+      <c r="I3" s="1"/>
+    </row>
+    <row r="4" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B4" s="66"/>
+      <c r="C4" s="66"/>
+      <c r="D4" s="66"/>
+      <c r="E4" s="2"/>
+      <c r="F4" s="1"/>
+      <c r="G4" s="1"/>
+      <c r="H4" s="67"/>
+      <c r="I4" s="67"/>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A5" s="65" t="s">
+        <v>1</v>
+      </c>
+      <c r="B5" s="65"/>
+      <c r="C5" s="65"/>
+      <c r="D5" s="65"/>
+      <c r="E5" s="65"/>
+      <c r="F5" s="1"/>
+      <c r="G5" s="1"/>
+      <c r="H5" s="1"/>
+      <c r="I5" s="1"/>
+      <c r="J5" s="1"/>
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A6" s="65" t="s">
+        <v>2</v>
+      </c>
+      <c r="B6" s="65"/>
+      <c r="C6" s="65"/>
+      <c r="D6" s="65"/>
+      <c r="E6" s="3"/>
+      <c r="F6" s="3"/>
+      <c r="G6" s="3"/>
+      <c r="H6" s="1"/>
+      <c r="I6" s="1"/>
+      <c r="J6" s="1"/>
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A7" s="65" t="s">
+        <v>3</v>
+      </c>
+      <c r="B7" s="65"/>
+      <c r="C7" s="65"/>
+      <c r="D7" s="65"/>
+      <c r="E7" s="1"/>
+      <c r="F7" s="1"/>
+      <c r="G7" s="1"/>
+      <c r="H7" s="1"/>
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A8" s="65" t="s">
+        <v>4</v>
+      </c>
+      <c r="B8" s="65"/>
+      <c r="C8" s="65"/>
+      <c r="D8" s="65"/>
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A9" s="43" t="s">
+        <v>5</v>
+      </c>
+      <c r="B9" s="43"/>
+      <c r="C9" s="43"/>
+      <c r="D9" s="43"/>
+      <c r="E9" s="43"/>
+      <c r="F9" s="43"/>
+      <c r="G9" s="43"/>
+      <c r="H9" s="43"/>
+      <c r="I9" s="43"/>
+      <c r="J9" s="43"/>
+    </row>
+    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A11" s="62" t="s">
+        <v>6</v>
+      </c>
+      <c r="B11" s="62"/>
+      <c r="C11" s="62"/>
+      <c r="D11" s="62" t="s">
+        <v>7</v>
+      </c>
+      <c r="E11" s="62"/>
+    </row>
+    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A12" s="47" t="s">
+        <v>8</v>
+      </c>
+      <c r="B12" s="63"/>
+      <c r="C12" s="48"/>
+      <c r="D12" s="64">
+        <v>45114</v>
+      </c>
+      <c r="E12" s="62"/>
+    </row>
+    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A14" s="57" t="s">
+        <v>9</v>
+      </c>
+      <c r="B14" s="59" t="s">
+        <v>10</v>
+      </c>
+      <c r="C14" s="57" t="s">
+        <v>11</v>
+      </c>
+      <c r="D14" s="59"/>
+      <c r="E14" s="61" t="s">
+        <v>12</v>
+      </c>
+      <c r="F14" s="61"/>
+      <c r="G14" s="55" t="s">
+        <v>13</v>
+      </c>
+      <c r="H14" s="51" t="s">
+        <v>14</v>
+      </c>
+      <c r="I14" s="52"/>
+      <c r="J14" s="55" t="s">
+        <v>15</v>
+      </c>
+      <c r="K14" s="55" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A15" s="58"/>
+      <c r="B15" s="60"/>
+      <c r="C15" s="58"/>
+      <c r="D15" s="60"/>
+      <c r="E15" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="F15" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="G15" s="56"/>
+      <c r="H15" s="53"/>
+      <c r="I15" s="54"/>
+      <c r="J15" s="56"/>
+      <c r="K15" s="56"/>
+    </row>
+    <row r="16" spans="1:11" ht="48" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="33">
+        <v>1</v>
+      </c>
+      <c r="B16" s="34" t="s">
+        <v>19</v>
+      </c>
+      <c r="C16" s="35" t="s">
+        <v>20</v>
+      </c>
+      <c r="D16" s="36"/>
+      <c r="E16" s="32">
+        <v>760</v>
+      </c>
+      <c r="F16" s="32">
+        <v>2134</v>
+      </c>
+      <c r="G16" s="32">
+        <v>8</v>
+      </c>
+      <c r="H16" s="37">
+        <f>+E16*F16*8/92903</f>
+        <v>139.65878389287752</v>
+      </c>
+      <c r="I16" s="38"/>
+      <c r="J16" s="32">
+        <v>540</v>
+      </c>
+      <c r="K16" s="7">
+        <f>+J16*H16</f>
+        <v>75415.74330215386</v>
+      </c>
+    </row>
+    <row r="17" spans="1:15" ht="57.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="33">
+        <v>2</v>
+      </c>
+      <c r="B17" s="34" t="s">
+        <v>21</v>
+      </c>
+      <c r="C17" s="35" t="s">
+        <v>22</v>
+      </c>
+      <c r="D17" s="36"/>
+      <c r="E17" s="32">
+        <v>915</v>
+      </c>
+      <c r="F17" s="32">
+        <v>1220</v>
+      </c>
+      <c r="G17" s="32">
+        <v>4</v>
+      </c>
+      <c r="H17" s="37">
+        <f>+E17*F17*4/92903</f>
+        <v>48.063033486539723</v>
+      </c>
+      <c r="I17" s="38"/>
+      <c r="J17" s="32">
+        <v>480</v>
+      </c>
+      <c r="K17" s="7">
+        <f>+H17*J17</f>
+        <v>23070.256073539065</v>
+      </c>
+    </row>
+    <row r="18" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A18" s="47"/>
+      <c r="B18" s="48"/>
+      <c r="C18" s="47"/>
+      <c r="D18" s="48"/>
+      <c r="E18" s="47"/>
+      <c r="F18" s="48"/>
+      <c r="G18" s="4"/>
+      <c r="H18" s="49">
+        <f>SUM(H16:I17)</f>
+        <v>187.72181737941725</v>
+      </c>
+      <c r="I18" s="50"/>
+      <c r="J18" s="8"/>
+      <c r="K18" s="9">
+        <f>SUM(K16:K17)</f>
+        <v>98485.999375692918</v>
+      </c>
+      <c r="L18" s="10"/>
+    </row>
+    <row r="19" spans="1:15" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A19" s="11"/>
+      <c r="B19" s="11"/>
+      <c r="G19" s="12"/>
+      <c r="H19" s="11"/>
+      <c r="J19" s="13" t="s">
+        <v>23</v>
+      </c>
+      <c r="K19" s="14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="J20" s="15" t="s">
+        <v>24</v>
+      </c>
+      <c r="K20" s="16">
+        <f>+K18*18%</f>
+        <v>17727.479887624726</v>
+      </c>
+    </row>
+    <row r="21" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="D21" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="E21" s="17">
+        <f>+K21/H18</f>
+        <v>619.0728434534102</v>
+      </c>
+      <c r="F21" s="18" t="s">
+        <v>26</v>
+      </c>
+      <c r="J21" s="15" t="s">
+        <v>27</v>
+      </c>
+      <c r="K21" s="16">
+        <f>+K20+K18</f>
+        <v>116213.47926331764</v>
+      </c>
+    </row>
+    <row r="22" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="J22" s="19" t="s">
+        <v>28</v>
+      </c>
+      <c r="K22" s="7">
+        <v>6000</v>
+      </c>
+      <c r="O22" s="10"/>
+    </row>
+    <row r="23" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A23" s="20" t="s">
+        <v>29</v>
+      </c>
+      <c r="B23" s="21"/>
+      <c r="C23" s="21" t="s">
+        <v>30</v>
+      </c>
+      <c r="D23" s="22" t="s">
+        <v>31</v>
+      </c>
+      <c r="E23" s="23"/>
+      <c r="J23" s="15" t="s">
+        <v>32</v>
+      </c>
+      <c r="K23" s="16">
+        <f>+K21+K22</f>
+        <v>122213.47926331764</v>
+      </c>
+    </row>
+    <row r="24" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A24" s="24" t="s">
+        <v>33</v>
+      </c>
+      <c r="E24" s="25" t="s">
+        <v>34</v>
+      </c>
+      <c r="J24" s="26"/>
+    </row>
+    <row r="25" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A25" s="24" t="s">
+        <v>35</v>
+      </c>
+      <c r="E25" s="25" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="26" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A26" s="46" t="s">
+        <v>37</v>
+      </c>
+      <c r="B26" s="44"/>
+      <c r="E26" s="25"/>
+    </row>
+    <row r="27" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A27" s="28" t="s">
+        <v>38</v>
+      </c>
+      <c r="B27" s="1"/>
+      <c r="C27" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="E27" s="25"/>
+    </row>
+    <row r="28" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A28" s="41" t="s">
+        <v>40</v>
+      </c>
+      <c r="B28" s="42"/>
+      <c r="C28" s="42"/>
+      <c r="D28" s="29" t="s">
+        <v>41</v>
+      </c>
+      <c r="E28" s="30"/>
+    </row>
+    <row r="29" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A29" s="11"/>
+      <c r="B29" s="11"/>
+      <c r="C29" s="11"/>
+      <c r="D29" s="3"/>
+    </row>
+    <row r="30" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A30" s="43" t="s">
+        <v>42</v>
+      </c>
+      <c r="B30" s="43"/>
+      <c r="C30" s="43"/>
+    </row>
+    <row r="31" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A31" s="27" t="s">
+        <v>43</v>
+      </c>
+      <c r="B31" s="27"/>
+      <c r="C31" s="27"/>
+      <c r="D31" s="31"/>
+      <c r="E31" s="31"/>
+      <c r="F31" s="31"/>
+      <c r="G31" s="31"/>
+    </row>
+    <row r="32" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A32" s="27" t="s">
+        <v>44</v>
+      </c>
+      <c r="B32" s="27"/>
+      <c r="C32" s="27"/>
+      <c r="D32" s="31"/>
+      <c r="E32" s="31"/>
+      <c r="F32" s="31"/>
+      <c r="G32" s="31"/>
+    </row>
+    <row r="33" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A33" s="27" t="s">
+        <v>45</v>
+      </c>
+      <c r="B33" s="27"/>
+      <c r="C33" s="27"/>
+      <c r="D33" s="31"/>
+      <c r="E33" s="31"/>
+      <c r="F33" s="31"/>
+      <c r="G33" s="31"/>
+      <c r="P33" s="1"/>
+      <c r="Q33" s="1"/>
+      <c r="R33" s="1"/>
+      <c r="S33" s="1"/>
+    </row>
+    <row r="34" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A34" s="27" t="s">
+        <v>46</v>
+      </c>
+      <c r="B34" s="27"/>
+      <c r="C34" s="27"/>
+      <c r="D34" s="31"/>
+      <c r="E34" s="31"/>
+      <c r="F34" s="31"/>
+      <c r="G34" s="31"/>
+    </row>
+    <row r="35" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A35" s="27" t="s">
+        <v>47</v>
+      </c>
+      <c r="B35" s="27"/>
+      <c r="C35" s="27"/>
+      <c r="D35" s="31"/>
+      <c r="E35" s="31"/>
+      <c r="F35" s="31"/>
+      <c r="G35" s="31"/>
+    </row>
+    <row r="36" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A36" s="44" t="s">
+        <v>48</v>
+      </c>
+      <c r="B36" s="44"/>
+      <c r="C36" s="44"/>
+      <c r="D36" s="44"/>
+      <c r="E36" s="44"/>
+      <c r="F36" s="44"/>
+      <c r="G36" s="44"/>
+    </row>
+    <row r="37" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A37" s="44" t="s">
+        <v>49</v>
+      </c>
+      <c r="B37" s="44"/>
+      <c r="C37" s="44"/>
+      <c r="D37" s="44"/>
+      <c r="E37" s="44"/>
+      <c r="F37" s="44"/>
+      <c r="G37" s="44"/>
+      <c r="H37" s="44"/>
+      <c r="I37" s="44"/>
+      <c r="J37" s="44"/>
+    </row>
+    <row r="38" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A38" s="44" t="s">
+        <v>50</v>
+      </c>
+      <c r="B38" s="44"/>
+      <c r="C38" s="44"/>
+      <c r="D38" s="44"/>
+      <c r="E38" s="44"/>
+      <c r="F38" s="31"/>
+      <c r="G38" s="31"/>
+    </row>
+    <row r="39" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A39" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="B39" s="1"/>
+      <c r="C39" s="1"/>
+    </row>
+    <row r="40" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A40" s="1"/>
+    </row>
+    <row r="41" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A41" s="1"/>
+      <c r="B41" s="45" t="s">
+        <v>52</v>
+      </c>
+      <c r="C41" s="45"/>
+      <c r="D41" s="45"/>
+      <c r="E41" s="45"/>
+      <c r="F41" s="45"/>
+      <c r="G41" s="45"/>
+      <c r="H41" s="45"/>
+    </row>
+    <row r="42" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="B42" s="39" t="s">
+        <v>53</v>
+      </c>
+      <c r="C42" s="39"/>
+      <c r="D42" s="39"/>
+      <c r="E42" s="39"/>
+      <c r="F42" s="40" t="s">
+        <v>54</v>
+      </c>
+      <c r="G42" s="40"/>
+      <c r="H42" s="40"/>
+    </row>
+    <row r="43" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="B43" s="40" t="s">
+        <v>55</v>
+      </c>
+      <c r="C43" s="40"/>
+      <c r="D43" s="40"/>
+      <c r="E43" s="40"/>
+      <c r="F43" s="40" t="s">
+        <v>56</v>
+      </c>
+      <c r="G43" s="40"/>
+      <c r="H43" s="40"/>
+    </row>
+  </sheetData>
+  <mergeCells count="38">
+    <mergeCell ref="A8:D8"/>
+    <mergeCell ref="B1:D4"/>
+    <mergeCell ref="H4:I4"/>
+    <mergeCell ref="A5:E5"/>
+    <mergeCell ref="A6:D6"/>
+    <mergeCell ref="A7:D7"/>
+    <mergeCell ref="A9:J9"/>
+    <mergeCell ref="A11:C11"/>
+    <mergeCell ref="D11:E11"/>
+    <mergeCell ref="A12:C12"/>
+    <mergeCell ref="D12:E12"/>
+    <mergeCell ref="A28:C28"/>
+    <mergeCell ref="H14:I15"/>
+    <mergeCell ref="J14:J15"/>
+    <mergeCell ref="K14:K15"/>
+    <mergeCell ref="C16:D16"/>
+    <mergeCell ref="H16:I16"/>
+    <mergeCell ref="C17:D17"/>
+    <mergeCell ref="H17:I17"/>
+    <mergeCell ref="A14:A15"/>
+    <mergeCell ref="B14:B15"/>
+    <mergeCell ref="C14:D15"/>
+    <mergeCell ref="E14:F14"/>
+    <mergeCell ref="G14:G15"/>
+    <mergeCell ref="A18:B18"/>
+    <mergeCell ref="C18:D18"/>
+    <mergeCell ref="E18:F18"/>
+    <mergeCell ref="H18:I18"/>
+    <mergeCell ref="A26:B26"/>
+    <mergeCell ref="B43:E43"/>
+    <mergeCell ref="F43:H43"/>
+    <mergeCell ref="A30:C30"/>
+    <mergeCell ref="A36:G36"/>
+    <mergeCell ref="A37:J37"/>
+    <mergeCell ref="A38:E38"/>
+    <mergeCell ref="B41:H41"/>
+    <mergeCell ref="B42:E42"/>
+    <mergeCell ref="F42:H42"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
